--- a/PerformanceReport.xlsx
+++ b/PerformanceReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dalei\简历\以往项目\LockFreeHashTable\LockFreeHashTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A5CF8597-3699-4EF9-91E9-A016572844CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791A420-6DB0-4F65-80D8-3E43C4DA173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{260EB2DB-55E8-4995-A9D7-36C747179751}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -647,25 +647,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43F65B9-2252-480D-9A5D-91D0BC90A63A}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -991,91 +990,85 @@
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -1084,191 +1077,143 @@
       <c r="E9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="18" t="s">
         <v>83</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="20">
         <v>3780242</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.86529999999999996</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <v>4924242</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>0.96109999999999995</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="14">
         <f>(B10-E10)/B10</f>
         <v>-0.30262612816851409</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="14">
         <f>(C10-F10)/C10</f>
         <v>-0.11071304749797758</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="20">
         <v>3233309</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>4404597</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>3.44E-2</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="14">
         <f t="shared" ref="G11:G12" si="0">(B11-E11)/B11</f>
         <v>-0.36225674688067239</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <f t="shared" ref="H11:H12" si="1">(C11-F11)/C11</f>
         <v>0.96560000000000001</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>7625000</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>5.62E-2</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <v>9584365</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>-0.25696590163934424</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <f t="shared" si="1"/>
         <v>-0.14946619217081858</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -1277,108 +1222,108 @@
       <c r="E19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="18" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="20">
         <v>2058975</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="17">
         <v>0.28920000000000001</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="20">
         <v>19667943</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="17">
         <v>0.49259999999999998</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="14">
         <f>(B20-E20)/B20</f>
         <v>-8.5522981094962294</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="14">
         <f>(C20-F20)/C20</f>
         <v>-0.70331950207468863</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="20">
         <v>1332888</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="17">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="20">
         <v>5006571</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="17">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="14">
         <f t="shared" ref="G21:G22" si="2">(B21-E21)/B21</f>
         <v>-2.7561828150602303</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="15">
         <f t="shared" ref="H21:H22" si="3">(C21-F21)/C21</f>
         <v>0.95550000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="20">
         <v>7053979</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="17">
         <v>7.3099999999999998E-2</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="20">
         <v>5992542</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>3.56E-2</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="15">
         <f t="shared" si="2"/>
         <v>0.15047351289251074</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="15">
         <f t="shared" si="3"/>
         <v>0.51299589603283169</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:D7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PerformanceReport.xlsx
+++ b/PerformanceReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dalei\简历\以往项目\LockFreeHashTable\LockFreeHashTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791A420-6DB0-4F65-80D8-3E43C4DA173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581C251A-F448-4FEE-B9D3-AC1F7D094269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{260EB2DB-55E8-4995-A9D7-36C747179751}"/>
   </bookViews>
@@ -661,10 +661,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,7 +982,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,7 +990,7 @@
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
@@ -998,50 +998,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
@@ -1317,13 +1317,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="A4:D7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PerformanceReport.xlsx
+++ b/PerformanceReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dalei\简历\以往项目\LockFreeHashTable\LockFreeHashTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581C251A-F448-4FEE-B9D3-AC1F7D094269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B3389F-E2D7-4AAF-84D6-0FDA3676DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{260EB2DB-55E8-4995-A9D7-36C747179751}"/>
   </bookViews>
@@ -343,7 +343,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3.</t>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -353,8 +353,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Start 12 projects at the same time and try to finish them at the same time.</t>
+      <t xml:space="preserve"> All processes target the </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> record. </t>
+    </r>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Success Rate</t>
+  </si>
+  <si>
+    <t>Success Rate Comparison</t>
   </si>
   <si>
     <r>
@@ -463,7 +493,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Start 12 projects at the same time and try to finish them at the same time.</t>
+      <t xml:space="preserve"> Start 12 processes at the same time and try to finish them at the same time.</t>
     </r>
   </si>
   <si>
@@ -476,7 +506,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.</t>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -486,38 +516,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> All processes target the </t>
+      <t xml:space="preserve"> Start 12 processes at the same time and try to finish them at the same time.</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SAME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> record. </t>
-    </r>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Success Rate</t>
-  </si>
-  <si>
-    <t>Success Rate Comparison</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -608,11 +608,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -658,13 +667,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,7 +1002,7 @@
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
@@ -998,87 +1010,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1175,7 +1195,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1185,45 +1205,45 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1320,10 +1340,10 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A4:D7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A4:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
